--- a/与太郎の備忘録.xlsx
+++ b/与太郎の備忘録.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8288" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
   <si>
     <t>サイトURL</t>
     <phoneticPr fontId="1"/>
@@ -300,10 +300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>まとめ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クライアントサイド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -340,23 +336,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Msoffice</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ソフト&amp;アプリ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ブラウザ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -422,6 +406,175 @@
   </si>
   <si>
     <t>odoketenanbo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ、一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Adobe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dreamweaver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSoffice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSoffice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能力ツリー</t>
+    <rPh sb="0" eb="2">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用語一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分からん一覧</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徘徊サイト</t>
+    <rPh sb="0" eb="2">
+      <t>ハイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wordpress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徘徊サイト一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ハイカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドにカテゴリー一覧があるので</t>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topのアプリは好きなものにする</t>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全記事一覧</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -429,7 +582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +623,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,6 +686,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,6 +713,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="994172" y="863203"/>
+          <a:ext cx="2803922" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -790,65 +1033,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="36" max="36" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AJ10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="AJ12">
+        <f>AJ10*AJ11</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="AJ13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ14">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ15">
+        <f>(AJ14-AJ12)/AJ13</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -865,106 +1136,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="V7" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="V10" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="V13" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="W15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W18" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="X21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="X22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="X23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="V24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="V25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V28" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -995,16 +1382,13 @@
         <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -1018,12 +1402,12 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R11" t="s">
         <v>11</v>
@@ -1031,7 +1415,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R12" t="s">
         <v>12</v>
@@ -1039,7 +1423,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R13" t="s">
         <v>13</v>
@@ -1087,7 +1471,7 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R19" t="s">
         <v>19</v>
@@ -1103,82 +1487,117 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>47</v>
+      <c r="D26" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/与太郎の備忘録.xlsx
+++ b/与太郎の備忘録.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8288" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8288"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -1033,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1120,6 +1120,34 @@
       <c r="AJ15">
         <f>(AJ14-AJ12)/AJ13</f>
         <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ19">
+        <f>AJ18*AJ17</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ20">
+        <f>300-AJ19</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="36:36" x14ac:dyDescent="0.25">
+      <c r="AJ21">
+        <f>AJ20/4</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1138,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/与太郎の備忘録.xlsx
+++ b/与太郎の備忘録.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\yotaro\与太郎の備忘録\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\yotaro\与太郎の備忘録\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D6319E-33F3-4685-907F-F5A1524E56D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8288"/>
+    <workbookView xWindow="28830" yWindow="-16245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
     <sheet name="構成ページ" sheetId="2" r:id="rId2"/>
     <sheet name="分類と札" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
   <si>
     <t>サイトURL</t>
     <phoneticPr fontId="1"/>
@@ -143,10 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sns</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>git</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -231,10 +234,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PCについて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PCの構造</t>
     <rPh sb="3" eb="5">
       <t>コウゾウ</t>
@@ -261,10 +260,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プログラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>scss</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -300,14 +295,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クライアントサイド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバーサイド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -574,6 +561,132 @@
     <t>まとめ系</t>
     <rPh sb="3" eb="4">
       <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>twitter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニケーションツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色当てゲーム</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16進数で数値の差分を計算する、256色</t>
+    <rPh sb="2" eb="4">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gMail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gDrive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBデザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBならではの場合</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラグイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brackets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facebook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>instagram</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoogleAppsScript(GAS)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G Suite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firefox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Edge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>safari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周辺機器</t>
+    <rPh sb="0" eb="2">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -581,8 +694,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +762,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -675,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +817,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +857,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1032,119 +1163,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="36" max="36" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="AJ11">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AJ12">
         <f>AJ10*AJ11</f>
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="AJ14">
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="AJ15">
         <f>(AJ14-AJ12)/AJ13</f>
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="36:36" x14ac:dyDescent="0.15">
       <c r="AJ17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="36:36" x14ac:dyDescent="0.15">
       <c r="AJ18">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="36:36" x14ac:dyDescent="0.15">
       <c r="AJ19">
         <f>AJ18*AJ17</f>
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="36:36" x14ac:dyDescent="0.15">
       <c r="AJ20">
         <f>300-AJ19</f>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="36:36" x14ac:dyDescent="0.15">
       <c r="AJ21">
         <f>AJ20/4</f>
         <v>10</v>
@@ -1153,9 +1284,9 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -1163,208 +1294,208 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="32.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="V5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
       <c r="V6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AA8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="W9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AA9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="W11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="W15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="W18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="X19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="V16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W18" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="X19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="W20" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="V24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="V26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="V27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="V28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1376,256 +1507,396 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="32.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="D21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="R24" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="R25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C28" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="R28" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="D30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="D31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="D32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D36" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="R37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="R39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="R40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="R42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="R43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="R44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="R45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="R46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C48" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
         <v>53</v>
-      </c>
-      <c r="R11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="R12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="R13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="R20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/与太郎の備忘録.xlsx
+++ b/与太郎の備忘録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\yotaro\与太郎の備忘録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D6319E-33F3-4685-907F-F5A1524E56D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262D348-6A96-4E75-8AA0-B4A71FA16ACD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28830" yWindow="-16245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/与太郎の備忘録.xlsx
+++ b/与太郎の備忘録.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\yotaro\与太郎の備忘録\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\yotaro\与太郎の備忘録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9262D348-6A96-4E75-8AA0-B4A71FA16ACD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="-16245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="-16245" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
     <sheet name="構成ページ" sheetId="2" r:id="rId2"/>
     <sheet name="分類と札" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
   <si>
     <t>サイトURL</t>
     <phoneticPr fontId="1"/>
@@ -688,13 +687,21 @@
     <rPh sb="2" eb="4">
       <t>キキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fontawesome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://fontawesome.com/kits/2e1904eab7/use?welcome=yes</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -860,7 +867,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,45 +1170,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>58</v>
       </c>
@@ -1209,7 +1216,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -1220,12 +1227,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AJ11">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1242,40 +1249,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AJ14">
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="AJ15">
         <f>(AJ14-AJ12)/AJ13</f>
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="36:36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="36:36" x14ac:dyDescent="0.15">
+    <row r="18" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ18">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="36:36" x14ac:dyDescent="0.15">
+    <row r="19" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ19">
         <f>AJ18*AJ17</f>
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="36:36" x14ac:dyDescent="0.15">
+    <row r="20" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ20">
         <f>300-AJ19</f>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="36:36" x14ac:dyDescent="0.15">
+    <row r="21" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ21">
         <f>AJ20/4</f>
         <v>10</v>
@@ -1284,37 +1299,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B16" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="32.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -1322,7 +1338,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1354,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1366,7 @@
       </c>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1377,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1369,7 +1385,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1377,7 +1393,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -1385,7 +1401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1401,7 +1417,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1409,7 +1425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1425,17 +1441,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="W18" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="X19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
@@ -1443,7 +1459,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>88</v>
       </c>
@@ -1451,7 +1467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>89</v>
       </c>
@@ -1459,7 +1475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>90</v>
       </c>
@@ -1467,7 +1483,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>91</v>
       </c>
@@ -1475,7 +1491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -1483,17 +1499,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V28" t="s">
         <v>77</v>
       </c>
@@ -1507,22 +1523,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="32.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1530,7 +1546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>112</v>
@@ -1539,7 +1555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="C6" t="s">
         <v>113</v>
@@ -1548,14 +1564,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="D7" t="s">
         <v>29</v>
       </c>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="D8" t="s">
         <v>28</v>
@@ -1564,7 +1580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="E9" t="s">
         <v>30</v>
@@ -1573,7 +1589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>114</v>
       </c>
@@ -1581,7 +1597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>115</v>
       </c>
@@ -1589,14 +1605,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>99</v>
       </c>
@@ -1608,7 +1624,7 @@
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1616,7 +1632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
@@ -1625,7 +1641,7 @@
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1634,7 +1650,7 @@
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1643,7 +1659,7 @@
       </c>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1651,13 +1667,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
@@ -1665,7 +1681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D21" s="7" t="s">
         <v>33</v>
       </c>
@@ -1673,7 +1689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -1681,7 +1697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
         <v>101</v>
       </c>
@@ -1689,7 +1705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>38</v>
       </c>
@@ -1697,7 +1713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1705,13 +1721,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
         <v>79</v>
       </c>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +1735,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
         <v>40</v>
       </c>
@@ -1727,7 +1743,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>93</v>
       </c>
@@ -1735,13 +1751,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D31" s="7" t="s">
         <v>42</v>
       </c>
@@ -1749,7 +1765,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D32" s="7" t="s">
         <v>43</v>
       </c>
@@ -1757,7 +1773,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>106</v>
       </c>
@@ -1765,13 +1781,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D34" s="7" t="s">
         <v>97</v>
       </c>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D35" s="7" t="s">
         <v>98</v>
       </c>
@@ -1779,12 +1795,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D36" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>80</v>
       </c>
@@ -1792,7 +1808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D38" s="7" t="s">
         <v>92</v>
       </c>
@@ -1800,7 +1816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>44</v>
       </c>
@@ -1808,7 +1824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>45</v>
       </c>
@@ -1816,12 +1832,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>62</v>
       </c>
@@ -1837,7 +1853,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>12</v>
       </c>
@@ -1845,7 +1861,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>13</v>
       </c>
@@ -1853,7 +1869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>63</v>
       </c>
@@ -1861,32 +1877,32 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C48" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>95</v>
       </c>
@@ -1894,7 +1910,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>53</v>
       </c>

--- a/与太郎の備忘録.xlsx
+++ b/与太郎の備忘録.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuzo\Desktop\yotaro\与太郎の備忘録\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\yotaro\与太郎の備忘録\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC27C357-2608-405F-8DCE-213029176259}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="-16245" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
-    <sheet name="構成ページ" sheetId="2" r:id="rId2"/>
-    <sheet name="分類と札" sheetId="3" r:id="rId3"/>
+    <sheet name="x-server" sheetId="4" r:id="rId2"/>
+    <sheet name="構成ページ" sheetId="2" r:id="rId3"/>
+    <sheet name="分類と札" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
   <si>
     <t>サイトURL</t>
     <phoneticPr fontId="1"/>
@@ -696,13 +697,101 @@
   <si>
     <t>https://fontawesome.com/kits/2e1904eab7/use?welcome=yes</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x-server 情報</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定対象ドメイン[yotarandum.net]</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t>WordPress 5.2</t>
+  </si>
+  <si>
+    <t>サイトURL</t>
+  </si>
+  <si>
+    <t>ブログ名</t>
+  </si>
+  <si>
+    <t>与太郎の備忘録</t>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+  </si>
+  <si>
+    <t>yotaro</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>odoketenanbo </t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>yotaro.genius@gmail.com</t>
+  </si>
+  <si>
+    <t>キャッシュ自動削除</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>MySQLデータベース名</t>
+  </si>
+  <si>
+    <t>yotarocha_wp1</t>
+  </si>
+  <si>
+    <t>MySQLユーザー名</t>
+  </si>
+  <si>
+    <t>MySQLパスワード</t>
+  </si>
+  <si>
+    <t>管理画面URL</t>
+  </si>
+  <si>
+    <t>http://yotarandum.net/wp-admin/</t>
+  </si>
+  <si>
+    <t>※以下のMySQLデータベース、MySQLユーザーを作成しました。</t>
+  </si>
+  <si>
+    <t>http://yotarandum.net</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2enbqv0v3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444444"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,21 +867,152 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F1F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -804,7 +1024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +1048,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,7 +1111,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1170,45 +1414,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="36" max="36" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>58</v>
       </c>
@@ -1216,7 +1460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -1227,12 +1471,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
       <c r="AJ11">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1241,7 +1485,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1249,12 +1493,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
       <c r="AJ14">
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
@@ -1263,34 +1507,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="36:36" x14ac:dyDescent="0.15">
       <c r="AJ17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="36:36" x14ac:dyDescent="0.15">
       <c r="AJ18">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="36:36" x14ac:dyDescent="0.15">
       <c r="AJ19">
         <f>AJ18*AJ17</f>
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="36:36" x14ac:dyDescent="0.15">
       <c r="AJ20">
         <f>300-AJ19</f>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="36:36" x14ac:dyDescent="0.15">
       <c r="AJ21">
         <f>AJ20/4</f>
         <v>10</v>
@@ -1299,10 +1543,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B16" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -1310,27 +1554,160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BE1959-6B6B-42AB-9E24-A8D400B06B06}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="39.125" customWidth="1"/>
+    <col min="35" max="35" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="32.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{0748ED69-C7D1-42AB-B533-33712E3A5F82}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{8C279696-6AAC-4C83-849B-F15465AE826F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="32.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -1346,7 +1723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1743,7 @@
       </c>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +1762,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1770,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -1401,7 +1778,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1409,7 +1786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1417,7 +1794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1802,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1441,17 +1818,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="W18" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="X19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
@@ -1459,7 +1836,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>88</v>
       </c>
@@ -1467,7 +1844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>89</v>
       </c>
@@ -1475,7 +1852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>90</v>
       </c>
@@ -1483,7 +1860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>91</v>
       </c>
@@ -1491,7 +1868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -1499,17 +1876,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="V26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="V27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="V28" t="s">
         <v>77</v>
       </c>
@@ -1522,23 +1899,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="32.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1546,7 +1923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>112</v>
@@ -1555,7 +1932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="C6" t="s">
         <v>113</v>
@@ -1564,14 +1941,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="D7" t="s">
         <v>29</v>
       </c>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="D8" t="s">
         <v>28</v>
@@ -1580,7 +1957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="E9" t="s">
         <v>30</v>
@@ -1589,7 +1966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>114</v>
       </c>
@@ -1597,7 +1974,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>115</v>
       </c>
@@ -1605,14 +1982,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>31</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>99</v>
       </c>
@@ -1624,7 +2001,7 @@
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1632,7 +2009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
@@ -1641,7 +2018,7 @@
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C16" s="7" t="s">
         <v>49</v>
       </c>
@@ -1650,7 +2027,7 @@
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1659,7 +2036,7 @@
       </c>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1667,13 +2044,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
@@ -1681,7 +2058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
       <c r="D21" s="7" t="s">
         <v>33</v>
       </c>
@@ -1689,7 +2066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
         <v>16</v>
       </c>
@@ -1697,7 +2074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
         <v>101</v>
       </c>
@@ -1705,7 +2082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C24" s="7" t="s">
         <v>38</v>
       </c>
@@ -1713,7 +2090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1721,13 +2098,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
         <v>79</v>
       </c>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C27" s="7" t="s">
         <v>19</v>
       </c>
@@ -1735,7 +2112,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C28" s="7" t="s">
         <v>40</v>
       </c>
@@ -1743,7 +2120,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>93</v>
       </c>
@@ -1751,13 +2128,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
       <c r="D30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
       <c r="D31" s="7" t="s">
         <v>42</v>
       </c>
@@ -1765,7 +2142,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
       <c r="D32" s="7" t="s">
         <v>43</v>
       </c>
@@ -1773,7 +2150,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
         <v>106</v>
       </c>
@@ -1781,13 +2158,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D34" s="7" t="s">
         <v>97</v>
       </c>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D35" s="7" t="s">
         <v>98</v>
       </c>
@@ -1795,12 +2172,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D36" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
         <v>80</v>
       </c>
@@ -1808,7 +2185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D38" s="7" t="s">
         <v>92</v>
       </c>
@@ -1816,7 +2193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>44</v>
       </c>
@@ -1824,7 +2201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>45</v>
       </c>
@@ -1832,12 +2209,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
         <v>11</v>
       </c>
@@ -1845,7 +2222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
         <v>62</v>
       </c>
@@ -1853,7 +2230,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
         <v>12</v>
       </c>
@@ -1861,7 +2238,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
         <v>13</v>
       </c>
@@ -1869,7 +2246,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D46" t="s">
         <v>63</v>
       </c>
@@ -1877,32 +2254,32 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C48" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
         <v>95</v>
       </c>
@@ -1910,7 +2287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>53</v>
       </c>
